--- a/OdP[Y62xxa]/DOC_COSTRUTTIVA/BOM/BOM_.xlsx
+++ b/OdP[Y62xxa]/DOC_COSTRUTTIVA/BOM/BOM_.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Lavori\Y59396 - LEONARDO - Cargiolli - UPS 167681069\Progetto\02 - HW\Schematici\Scheda UPS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Lavori_old\Y98765_1234_Prova\OdP[Y62xxa]\DOC_COSTRUTTIVA\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0353B41-2C58-4B9B-87FC-25503DE4C340}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89427BA8-D668-4852-8CFA-71B4435F2F7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" xr2:uid="{F9A18D5F-30FF-4D76-80FE-49B93F7F147D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F9A18D5F-30FF-4D76-80FE-49B93F7F147D}"/>
   </bookViews>
   <sheets>
     <sheet name="Schematic1" sheetId="1" r:id="rId1"/>
@@ -20,20 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="228">
   <si>
     <t>#</t>
   </si>
@@ -239,9 +231,6 @@
     <t>TMR3-4822WI</t>
   </si>
   <si>
-    <t>851CN0739</t>
-  </si>
-  <si>
     <t>D2,D4,D8,D37,D40</t>
   </si>
   <si>
@@ -717,6 +706,9 @@
   </si>
   <si>
     <t>B72210S2301K101</t>
+  </si>
+  <si>
+    <t>851CN0738</t>
   </si>
 </sst>
 </file>
@@ -1071,7 +1063,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1676D66-CD2F-4100-A263-A521401D7319}">
   <dimension ref="A1:H64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1466,7 +1460,7 @@
         <v>61</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>68</v>
+        <v>227</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1477,7 +1471,7 @@
         <v>8</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D16">
         <v>5</v>
@@ -1486,13 +1480,13 @@
         <v>8</v>
       </c>
       <c r="F16" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="H16" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1503,22 +1497,22 @@
         <v>8</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" s="1" t="s">
+      <c r="G17" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="H17" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1529,7 +1523,7 @@
         <v>8</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D18">
         <v>4</v>
@@ -1538,13 +1532,13 @@
         <v>8</v>
       </c>
       <c r="F18" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1555,7 +1549,7 @@
         <v>8</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D19">
         <v>5</v>
@@ -1564,13 +1558,13 @@
         <v>8</v>
       </c>
       <c r="F19" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="H19" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1581,7 +1575,7 @@
         <v>8</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D20">
         <v>10</v>
@@ -1590,13 +1584,13 @@
         <v>8</v>
       </c>
       <c r="F20" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="H20" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1607,22 +1601,22 @@
         <v>8</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F21" s="1" t="s">
+      <c r="G21" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -1633,7 +1627,7 @@
         <v>8</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D22">
         <v>4</v>
@@ -1642,13 +1636,13 @@
         <v>8</v>
       </c>
       <c r="F22" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G22" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="H22" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1659,7 +1653,7 @@
         <v>8</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D23">
         <v>4</v>
@@ -1668,7 +1662,7 @@
         <v>8</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>8</v>
@@ -1685,7 +1679,7 @@
         <v>8</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D24">
         <v>2</v>
@@ -1694,13 +1688,13 @@
         <v>8</v>
       </c>
       <c r="F24" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G24" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="H24" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1711,22 +1705,22 @@
         <v>8</v>
       </c>
       <c r="C25" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F25" s="1" t="s">
+      <c r="G25" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H25" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -1737,22 +1731,22 @@
         <v>8</v>
       </c>
       <c r="C26" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F26" s="1" t="s">
+      <c r="G26" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="H26" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -1763,7 +1757,7 @@
         <v>8</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D27">
         <v>3</v>
@@ -1772,13 +1766,13 @@
         <v>8</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>39</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -1789,7 +1783,7 @@
         <v>8</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D28">
         <v>2</v>
@@ -1798,13 +1792,13 @@
         <v>8</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>39</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -1815,22 +1809,22 @@
         <v>8</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D29">
         <v>2</v>
       </c>
       <c r="E29" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="G29" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="H29" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -1841,22 +1835,22 @@
         <v>8</v>
       </c>
       <c r="C30" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F30" s="1" t="s">
+      <c r="G30" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="H30" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -1867,22 +1861,22 @@
         <v>8</v>
       </c>
       <c r="C31" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F31" s="1" t="s">
+      <c r="G31" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="H31" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -1893,7 +1887,7 @@
         <v>8</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D32">
         <v>3</v>
@@ -1902,13 +1896,13 @@
         <v>8</v>
       </c>
       <c r="F32" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H32" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -1919,22 +1913,22 @@
         <v>8</v>
       </c>
       <c r="C33" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-      <c r="E33" s="1" t="s">
+      <c r="F33" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G33" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="F33" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="G33" s="1" t="s">
+      <c r="H33" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -1945,7 +1939,7 @@
         <v>8</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D34">
         <v>4</v>
@@ -1954,13 +1948,13 @@
         <v>8</v>
       </c>
       <c r="F34" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H34" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -1971,19 +1965,19 @@
         <v>8</v>
       </c>
       <c r="C35" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>137</v>
-      </c>
       <c r="G35" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>8</v>
@@ -1997,19 +1991,19 @@
         <v>8</v>
       </c>
       <c r="C36" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>139</v>
-      </c>
       <c r="G36" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>54</v>
@@ -2023,22 +2017,22 @@
         <v>8</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D37">
         <v>4</v>
       </c>
       <c r="E37" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F37" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>142</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>26</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -2049,22 +2043,22 @@
         <v>8</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D38">
         <v>18</v>
       </c>
       <c r="E38" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F38" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>146</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>26</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -2075,22 +2069,22 @@
         <v>8</v>
       </c>
       <c r="C39" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D39">
-        <v>1</v>
-      </c>
-      <c r="E39" s="1" t="s">
+      <c r="F39" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>150</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>26</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -2101,22 +2095,22 @@
         <v>8</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D40">
         <v>3</v>
       </c>
       <c r="E40" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F40" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="G40" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H40" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -2127,16 +2121,16 @@
         <v>8</v>
       </c>
       <c r="C41" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="D41">
-        <v>1</v>
-      </c>
-      <c r="E41" s="1" t="s">
+      <c r="F41" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>158</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>39</v>
@@ -2153,22 +2147,22 @@
         <v>8</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D42">
         <v>5</v>
       </c>
       <c r="E42" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F42" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>161</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>26</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -2179,22 +2173,22 @@
         <v>8</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D43">
         <v>3</v>
       </c>
       <c r="E43" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F43" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>165</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>26</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -2205,22 +2199,22 @@
         <v>8</v>
       </c>
       <c r="C44" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="D44">
-        <v>1</v>
-      </c>
-      <c r="E44" s="1" t="s">
+      <c r="F44" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="F44" s="1" t="s">
+      <c r="G44" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H44" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -2231,16 +2225,16 @@
         <v>8</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D45">
         <v>2</v>
       </c>
       <c r="E45" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F45" s="1" t="s">
         <v>172</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>173</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>26</v>
@@ -2257,22 +2251,22 @@
         <v>8</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D46">
         <v>3</v>
       </c>
       <c r="E46" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F46" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>176</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>26</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -2283,22 +2277,22 @@
         <v>8</v>
       </c>
       <c r="C47" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D47">
-        <v>1</v>
-      </c>
-      <c r="E47" s="1" t="s">
+      <c r="F47" s="1" t="s">
         <v>179</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>180</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>26</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -2309,22 +2303,22 @@
         <v>8</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D48">
         <v>2</v>
       </c>
       <c r="E48" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F48" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="F48" s="1" t="s">
+      <c r="G48" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H48" s="1" t="s">
         <v>184</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -2335,16 +2329,16 @@
         <v>8</v>
       </c>
       <c r="C49" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="D49">
-        <v>1</v>
-      </c>
-      <c r="E49" s="1" t="s">
+      <c r="F49" s="1" t="s">
         <v>187</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>188</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>26</v>
@@ -2361,19 +2355,19 @@
         <v>8</v>
       </c>
       <c r="C50" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F50" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="D50">
-        <v>1</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="F50" s="1" t="s">
+      <c r="G50" s="1" t="s">
         <v>190</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>191</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>8</v>
@@ -2387,19 +2381,19 @@
         <v>8</v>
       </c>
       <c r="C51" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F51" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="D51">
-        <v>1</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>193</v>
-      </c>
       <c r="G51" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>8</v>
@@ -2413,19 +2407,19 @@
         <v>8</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D52">
         <v>2</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>8</v>
@@ -2439,19 +2433,19 @@
         <v>8</v>
       </c>
       <c r="C53" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D53">
-        <v>1</v>
-      </c>
-      <c r="E53" s="1" t="s">
+      <c r="F53" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="F53" s="1" t="s">
-        <v>198</v>
-      </c>
       <c r="G53" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H53" s="1" t="s">
         <v>8</v>
@@ -2465,19 +2459,19 @@
         <v>8</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D54">
         <v>2</v>
       </c>
       <c r="E54" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F54" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="F54" s="1" t="s">
-        <v>201</v>
-      </c>
       <c r="G54" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H54" s="1" t="s">
         <v>8</v>
@@ -2491,22 +2485,22 @@
         <v>8</v>
       </c>
       <c r="C55" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="D55">
-        <v>1</v>
-      </c>
-      <c r="E55" s="1" t="s">
+      <c r="F55" s="1" t="s">
         <v>203</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>204</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>26</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -2517,19 +2511,19 @@
         <v>8</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D56">
         <v>3</v>
       </c>
       <c r="E56" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F56" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="F56" s="1" t="s">
-        <v>208</v>
-      </c>
       <c r="G56" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>8</v>
@@ -2543,19 +2537,19 @@
         <v>8</v>
       </c>
       <c r="C57" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="D57">
-        <v>1</v>
-      </c>
-      <c r="E57" s="1" t="s">
+      <c r="F57" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="F57" s="1" t="s">
-        <v>211</v>
-      </c>
       <c r="G57" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H57" s="1" t="s">
         <v>8</v>
@@ -2569,7 +2563,7 @@
         <v>8</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D58">
         <v>20</v>
@@ -2578,7 +2572,7 @@
         <v>8</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>8</v>
@@ -2595,7 +2589,7 @@
         <v>8</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D59">
         <v>5</v>
@@ -2604,13 +2598,13 @@
         <v>8</v>
       </c>
       <c r="F59" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H59" s="1" t="s">
         <v>215</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -2621,7 +2615,7 @@
         <v>8</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D60">
         <v>2</v>
@@ -2630,10 +2624,10 @@
         <v>8</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H60" s="1" t="s">
         <v>8</v>
@@ -2647,19 +2641,19 @@
         <v>8</v>
       </c>
       <c r="C61" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F61" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="D61">
-        <v>1</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F61" s="1" t="s">
+      <c r="G61" s="1" t="s">
         <v>220</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>221</v>
       </c>
       <c r="H61" s="1" t="s">
         <v>8</v>
@@ -2673,19 +2667,19 @@
         <v>8</v>
       </c>
       <c r="C62" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F62" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="D62">
-        <v>1</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>223</v>
-      </c>
       <c r="G62" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H62" s="1" t="s">
         <v>8</v>
@@ -2699,19 +2693,19 @@
         <v>8</v>
       </c>
       <c r="C63" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F63" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="D63">
-        <v>1</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>225</v>
-      </c>
       <c r="G63" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H63" s="1" t="s">
         <v>8</v>
@@ -2725,16 +2719,16 @@
         <v>8</v>
       </c>
       <c r="C64" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F64" s="1" t="s">
         <v>226</v>
-      </c>
-      <c r="D64">
-        <v>1</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>227</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>58</v>
